--- a/Банки.xlsx
+++ b/Банки.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23815"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABDB6BE-65BE-4EB9-B37F-D766E7CEC8F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E912CE-C4F4-41C8-BA38-990A4C6B5B3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,13 +656,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>8</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>

--- a/Банки.xlsx
+++ b/Банки.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E912CE-C4F4-41C8-BA38-990A4C6B5B3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F4694EC-BA21-4861-89AD-91AB5F7D1D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Альтернативы</t>
   </si>
@@ -46,38 +46,53 @@
     <t>Макс сумма вклада(Т.Р) +</t>
   </si>
   <si>
-    <t>Сбер</t>
-  </si>
-  <si>
-    <t>Русский стандарт</t>
-  </si>
-  <si>
-    <t>Россельхоз</t>
-  </si>
-  <si>
-    <t>Сити Банк</t>
-  </si>
-  <si>
-    <t>Альфа Банк</t>
-  </si>
-  <si>
-    <t>ВТБ</t>
-  </si>
-  <si>
-    <t>Хоум Кредит</t>
-  </si>
-  <si>
-    <t>Точка</t>
-  </si>
-  <si>
-    <t>ОТП Банк</t>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>30 </t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>15 </t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>25 </t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>10 </t>
+  </si>
+  <si>
+    <t>A9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +108,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +145,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,22 +188,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,7 +557,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,28 +571,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
@@ -547,13 +607,13 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
-        <v>999999999</v>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
+      <c r="A3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -567,13 +627,13 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="3">
-        <v>999999999</v>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
+      <c r="A4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>7</v>
@@ -587,13 +647,13 @@
       <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
-        <v>999999999</v>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
+      <c r="A5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>8</v>
@@ -607,13 +667,13 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <v>999999999</v>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
+      <c r="A6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>9</v>
@@ -627,13 +687,13 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>999999999</v>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
+      <c r="A7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -647,13 +707,13 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
-        <v>999999999</v>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -667,13 +727,13 @@
       <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="4">
-        <v>999999999</v>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
+      <c r="A9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -687,13 +747,13 @@
       <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="4">
-        <v>999999999</v>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
+      <c r="A10" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
@@ -707,17 +767,17 @@
       <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="4">
-        <v>999999999</v>
+      <c r="F10" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
